--- a/output/google_maps_data_Restoran_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_Restoran_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Restoran+Kota+Yogyakarta/@-7.8053374,110.3684985,15z/data=!4m2!2m1!6e5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(0274) 547315</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>-7.785183</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.785183</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.371391</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+House+Of+Raminten/@-7.7851826,110.3533667,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5831e4074603:0xbf9157808e91c603!8m2!3d-7.7851826!4d110.3713911!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEWdHJhZGl0aW9uYWxfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b76dbbmp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+House+Of+Raminten/@-7.7851826,110.3533667,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5831e4074603:0xbf9157808e91c603!8m2!3d-7.7851826!4d110.3713911!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEWdHJhZGl0aW9uYWxfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b76dbbmp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -579,25 +572,24 @@
           <t>(0274) 371052</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.818566</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.818566</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.364528</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mediterranea+Restaurant+by+Kamil/@-7.818566,110.3465032,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57bd1a830c51:0x917adbfd1657973b!8m2!3d-7.818566!4d110.3645276!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETZXVyb3BlYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11hc_2l3kv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mediterranea+Restaurant+by+Kamil/@-7.818566,110.3465032,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57bd1a830c51:0x917adbfd1657973b!8m2!3d-7.818566!4d110.3645276!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETZXVyb3BlYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11hc_2l3kv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -624,25 +616,24 @@
           <t>(0274) 514291</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>-7.797399</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.797399</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.364603</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pempek+Ny.+Kamto+Beskalan+3/@-7.7973993,110.3465781,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5788472d6b85:0x19e6783eb5cbbe1c!8m2!3d-7.7973993!4d110.3646025!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGVtcGVrX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1hc2_qxd5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pempek+Ny.+Kamto+Beskalan+3/@-7.7973993,110.3465781,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5788472d6b85:0x19e6783eb5cbbe1c!8m2!3d-7.7973993!4d110.3646025!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGVtcGVrX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1hc2_qxd5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -665,25 +656,24 @@
           <t>(0274) 543670</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.801433</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.801433</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.373642</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Goreng+Bu+Tini/@-7.801433,110.3556175,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5783e5f59c97:0x73328b2b0676fbeb!8m2!3d-7.801433!4d110.3736419!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEWZnJpZWRfY2hpY2tlbl90YWtlYXdheeABAA!16s%2Fg%2F1hc7wtdnj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Goreng+Bu+Tini/@-7.801433,110.3556175,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5783e5f59c97:0x73328b2b0676fbeb!8m2!3d-7.801433!4d110.3736419!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEWZnJpZWRfY2hpY2tlbl90YWtlYXdheeABAA!16s%2Fg%2F1hc7wtdnj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>50 menit lalu</t>
         </is>
@@ -706,25 +696,24 @@
           <t>0812-2942-6685</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>-7.820165</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.820165</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.366434</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KESUMA+Restaurant/@-7.8201653,110.3484091,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57bcd2834539:0x82d6f1a31316393!8m2!3d-7.8201653!4d110.3664335!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1td_82nn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KESUMA+Restaurant/@-7.8201653,110.3484091,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57bcd2834539:0x82d6f1a31316393!8m2!3d-7.8201653!4d110.3664335!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1td_82nn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -747,25 +736,24 @@
           <t>(0274) 374429</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.802719</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.802719</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.36937</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Lie+Djiong/@-7.802719,110.3513458,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5785b30e5291:0x5bf0ebe95539b39e!8m2!3d-7.802719!4d110.3693702!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgESY2hpbmVzZV9yZXN0YXVyYW504AEA!16s%2Fg%2F1hc6x_pnt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Lie+Djiong/@-7.802719,110.3513458,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5785b30e5291:0x5bf0ebe95539b39e!8m2!3d-7.802719!4d110.3693702!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgESY2hpbmVzZV9yZXN0YXVyYW504AEA!16s%2Fg%2F1hc6x_pnt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -792,25 +780,24 @@
           <t>(0274) 6415555</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.773889</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.773889</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.368611</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kayu+Manis+Restaurant/@-7.7738889,110.3505867,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a584847d2350b:0xa590f50c7750fe5f!8m2!3d-7.7738889!4d110.3686111!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11bbyhlz3f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kayu+Manis+Restaurant/@-7.7738889,110.3505867,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a584847d2350b:0xa590f50c7750fe5f!8m2!3d-7.7738889!4d110.3686111!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11bbyhlz3f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -837,25 +824,24 @@
           <t>0813-6065-4359</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>-7.80117</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.80117</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.361679</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Duta+Minang+Yogyakarta/@-7.8011703,110.3436545,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57894c108a9d:0xa1939f0529a208bf!8m2!3d-7.8011703!4d110.3616789!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGFkYW5nX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1hm5k021g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -874,25 +860,24 @@
           <t>(0274) 376605</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.803882</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.803882</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.370334</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/2T+Resto+%26+Catering/@-7.8011703,110.3436545,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57879701c553:0x731b206f3c751e7e!8m2!3d-7.8038819!4d110.3703338!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQY2F0ZXJpbmdfc2VydmljZeABAA!16s%2Fg%2F1pzw4q28v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/2T+Resto+%26+Catering/@-7.8011703,110.3436545,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57879701c553:0x731b206f3c751e7e!8m2!3d-7.8038819!4d110.3703338!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQY2F0ZXJpbmdfc2VydmljZeABAA!16s%2Fg%2F1pzw4q28v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -915,25 +900,24 @@
           <t>0877-3869-1803</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.804229</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.804229</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.3667</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Wijilan+Bu+Lies+2/@-7.8011703,110.3436545,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578f8aaac5d5:0xf66bf00b6e133d67!8m2!3d-7.8042287!4d110.3667!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11b72rbj0b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Wijilan+Bu+Lies+2/@-7.8011703,110.3436545,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578f8aaac5d5:0xf66bf00b6e133d67!8m2!3d-7.8042287!4d110.3667!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11b72rbj0b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>9 jam lalu</t>
         </is>
@@ -960,25 +944,24 @@
           <t>(0274) 370777</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>-7.820098</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.820098</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.371994</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Lawas/@-7.8200984,110.3539696,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57a253913dd5:0x96a0e43c342cc8d8!8m2!3d-7.8200984!4d110.371994!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11b6v8rnpz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -997,25 +980,24 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.784747</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.784747</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.367366</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rustik+Bistro+%26+Bar+(Harper+Malioboro)/@-7.7847465,110.3493412,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5830101bb9cb:0xd3db2bf6419e35e2!8m2!3d-7.7847465!4d110.3673656!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEGYmlzdHJv4AEA!16s%2Fg%2F11g8yh9qm6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1034,25 +1016,24 @@
           <t>0852-2840-8800</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>-7.813363</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.813363</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.397158</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakmi+Jowo+Mbah+Gito/@-7.813363,110.3791331,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57722fbbdca7:0xa4d8164b839bc9ef!8m2!3d-7.813363!4d110.3971575!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c5bjb7cd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakmi+Jowo+Mbah+Gito/@-7.813363,110.3791331,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57722fbbdca7:0xa4d8164b839bc9ef!8m2!3d-7.813363!4d110.3971575!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c5bjb7cd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
@@ -1075,25 +1056,24 @@
           <t>0812-2609-9494</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.804936</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.804936</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.366723</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Yu+Djum+Wijilan+31/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5785603eda9d:0x16f04554efd6de70!8m2!3d-7.8049362!4d110.3667234!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11gf5l6zpg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Yu+Djum+Wijilan+31/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5785603eda9d:0x16f04554efd6de70!8m2!3d-7.8049362!4d110.3667234!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11gf5l6zpg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1116,25 +1096,24 @@
           <t>(0274) 419199</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.810093</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.810093</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.362343</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/nDalem+Ngabean+Resto/@-7.8049362,110.348699,15z/data=!4m14!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m9!1s0x2e7a5793e5555555:0xf28e8142d74fb543!5m2!4m1!1i2!8m2!3d-7.8100929!4d110.3623428!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzxq32sx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1149,25 +1128,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>-7.803499</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.803499</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.365768</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Soto+Keraton+Alun-Alun+Lor+Yogyakarta/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57f699577d8d:0x86a4ccc8d8dde81e!8m2!3d-7.8034986!4d110.3657683!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEUc290b19heWFtX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gjx8t0hg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1190,25 +1168,24 @@
           <t>0882-3232-5393</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.803966</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.803966</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.366507</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sego+Telkem+%22Mbak+Nur%22/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57441acaa88b:0xeea4a4b057dc5b1f!8m2!3d-7.8039656!4d110.3665066!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEPbmFzaV9yZXN0YXVyYW504AEA!16s%2Fg%2F11t9j01t9z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sego+Telkem+%22Mbak+Nur%22/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57441acaa88b:0xeea4a4b057dc5b1f!8m2!3d-7.8039656!4d110.3665066!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEPbmFzaV9yZXN0YXVyYW504AEA!16s%2Fg%2F11t9j01t9z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1231,25 +1208,24 @@
           <t>(0274) 589521</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.797285</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.797285</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.369013</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/El+Patio+Restaurant/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578799e6a0b7:0xe94df5bbe133996!8m2!3d-7.797285!4d110.3690134!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11c1r1c99r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1268,21 +1244,20 @@
           <t>0811-2652-166</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="E21" t="n">
         <v>4.4</v>
       </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Raminten+Malioboro+Resto/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a58263876d1dd:0x17059a30e740aac5!8m2!3d-7.7991661!4d110.3648118!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzpmpr_v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Raminten+Malioboro+Resto/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a58263876d1dd:0x17059a30e740aac5!8m2!3d-7.7991661!4d110.3648118!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzpmpr_v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -1309,25 +1284,24 @@
           <t>(0274) 386557</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>-7.819351</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.819351</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.371526</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ViaVia+Jogja/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57a3c92ac2df:0x10a4e81eaf2ed9f8!8m2!3d-7.8193508!4d110.3715262!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEWaGVhbHRoX2Zvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11_qrdmg7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ViaVia+Jogja/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57a3c92ac2df:0x10a4e81eaf2ed9f8!8m2!3d-7.8193508!4d110.3715262!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEWaGVhbHRoX2Zvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11_qrdmg7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -1350,25 +1324,24 @@
           <t>0878-3962-6111</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.803175</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.803175</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.363114</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pendopo+Sop/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57f0ab982ecd:0x28e330be3daca029!8m2!3d-7.8031748!4d110.363114!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11hdb8cyd4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1387,25 +1360,24 @@
           <t>0856-4090-0691</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.81805</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.81805</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.362753</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kedai+Kebun+Forum/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57bdbc81bb53:0x1e337895d1c4e268!8m2!3d-7.81805!4d110.3627528!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1vb_r82h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kedai+Kebun+Forum/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57bdbc81bb53:0x1e337895d1c4e268!8m2!3d-7.81805!4d110.3627528!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1vb_r82h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1428,25 +1400,24 @@
           <t>(0274) 560780</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>-7.797485</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.797485</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.365095</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Makan+Soto+Ayam+61/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57889ec1f61b:0xc57845d054772380!8m2!3d-7.7974852!4d110.3650954!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEUc290b19heWFtX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11h1cz1d8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1465,25 +1436,24 @@
           <t>0813-2873-5544</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.803141</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.803141</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.363117</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Makan+Gudeg+Yu+Tum/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578ee3614911:0x78f8005fe975e504!8m2!3d-7.803141!4d110.363117!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c56b7v7l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1502,25 +1472,24 @@
           <t>0813-6099-7171</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>-7.801538</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.801538</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.360292</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ndalem+Poenakawan/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5724b419a397:0x50e0f6b8ce3b86b0!8m2!3d-7.8015376!4d110.3602921!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11qgcc3f4g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1543,25 +1512,24 @@
           <t>0813-2832-2668</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.9</v>
+        <v>-7.819484</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.819484</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.368131</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/City+Grill+-+Eastern+Mediterranean+Restaurant/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57148dbdea93:0xcef98f3ed56e71ca!8m2!3d-7.8194842!4d110.3681308!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEYbWVkaXRlcnJhbmVhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11rcvc9nd4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/City+Grill+-+Eastern+Mediterranean+Restaurant/@-7.8049362,110.348699,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57148dbdea93:0xcef98f3ed56e71ca!8m2!3d-7.8194842!4d110.3681308!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEYbWVkaXRlcnJhbmVhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11rcvc9nd4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -1584,25 +1552,24 @@
           <t>(0274) 563435</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>-7.790337</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.790337</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.363329</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Restoran+Abadi+Hotel+Jogja/@-7.7903371,110.345305,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a582432105ff5:0x52e12486104907f3!8m2!3d-7.7903371!4d110.3633294!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11bbw_k_z9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Restoran+Abadi+Hotel+Jogja/@-7.7903371,110.345305,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a582432105ff5:0x52e12486104907f3!8m2!3d-7.7903371!4d110.3633294!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11bbw_k_z9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1625,25 +1592,24 @@
           <t>0822-9229-2112</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>-7.793234</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.793234</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.358081</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yammie+Pathuk+Kemetiran+Kidul+Yogyakarta/@-7.7903371,110.345305,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a582106132511:0xf0b3bee94931c49c!8m2!3d-7.7932338!4d110.3580809!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1hm3rh7vd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yammie+Pathuk+Kemetiran+Kidul+Yogyakarta/@-7.7903371,110.345305,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a582106132511:0xf0b3bee94931c49c!8m2!3d-7.7932338!4d110.3580809!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1hm3rh7vd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1666,25 +1632,24 @@
           <t>0812-3394-2406</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-7.804569</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.804569</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.366713</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Bu+Slamet+Wijilan+1946/@-7.7903371,110.345305,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57855651359f:0x3c44853a0a33d427!8m2!3d-7.8045689!4d110.3667133!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzt0wdtq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Bu+Slamet+Wijilan+1946/@-7.7903371,110.345305,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57855651359f:0x3c44853a0a33d427!8m2!3d-7.8045689!4d110.3667133!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzt0wdtq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1711,25 +1676,24 @@
           <t>0819-9998-3883</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.9</v>
+        <v>-7.793529</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.793529</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.360589</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walter+Coffee+and+Eatery/@-7.7903371,110.345305,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a59256e140529:0xd66611d4abf9da32!8m2!3d-7.7935288!4d110.3605887!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11l6hwfm7b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Walter+Coffee+and+Eatery/@-7.7903371,110.345305,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a59256e140529:0xd66611d4abf9da32!8m2!3d-7.7935288!4d110.3605887!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11l6hwfm7b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1756,25 +1720,24 @@
           <t>0822-3315-5497</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.5</v>
+        <v>-7.805718</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.805718</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.39014</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gudeg+Pawon/@-7.805718,110.3721152,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57700347cb51:0xed0b575329f65c3d!8m2!3d-7.805718!4d110.3901396!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzpwwrgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1793,25 +1756,24 @@
           <t>0857-8677-7357</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>-7.803497</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.803497</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.366208</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Padang+Aroma+Baru/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578f797592df:0x697e470b03b09815!8m2!3d-7.8034971!4d110.3662075!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGFkYW5nX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1hm33hm1v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Padang+Aroma+Baru/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578f797592df:0x697e470b03b09815!8m2!3d-7.8034971!4d110.3662075!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGFkYW5nX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1hm33hm1v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1830,25 +1792,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.79921</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.79921</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.367757</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Makan+Bu+Sum/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578637db737d:0x27a6a27eda959606!8m2!3d-7.7992096!4d110.3677565!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11bzrqdxh9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Makan+Bu+Sum/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578637db737d:0x27a6a27eda959606!8m2!3d-7.7992096!4d110.3677565!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11bzrqdxh9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1875,25 +1836,24 @@
           <t>0821-3869-7888</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-7.804566</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.804566</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.366753</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gudeg+Yu+Djum+Wijilan+167/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a574135fe1069:0x38ddc01ac0a38eec!8m2!3d-7.8045659!4d110.3667533!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11jcn6w9cl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1912,25 +1872,24 @@
           <t>0851-0013-3267</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>-7.799159</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.799159</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.368129</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Empal+Bu+Warno/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578864ee6b0d:0x3f79216af8cdcfa0!8m2!3d-7.7991594!4d110.3681293!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1hc1jdmd9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Empal+Bu+Warno/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578864ee6b0d:0x3f79216af8cdcfa0!8m2!3d-7.7991594!4d110.3681293!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1hc1jdmd9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -1949,21 +1908,20 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
+      <c r="E38" t="n">
         <v>4.2</v>
       </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Jogja/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5785e83e4577:0xa6895abfee8caf04!8m2!3d-7.8018854!4d110.3687262!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b6213jv4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Jogja/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5785e83e4577:0xa6895abfee8caf04!8m2!3d-7.8018854!4d110.3687262!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b6213jv4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1986,25 +1944,24 @@
           <t>0813-9396-6999</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.8</v>
+        <v>-7.806584</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.806584</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.369346</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KEDAI+MAKAN+HIQMAT/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57ef5152f6ed:0x55d560833cc2bd56!8m2!3d-7.806584!4d110.3693459!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11fkqz5vcm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KEDAI+MAKAN+HIQMAT/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57ef5152f6ed:0x55d560833cc2bd56!8m2!3d-7.806584!4d110.3693459!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11fkqz5vcm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2031,25 +1988,24 @@
           <t>0857-4236-3844</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>-7.804354</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.804354</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.366774</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Wijilan+Bu+Hj.+Rini/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578560105b6f:0x26a8f977361fe38a!8m2!3d-7.8043545!4d110.3667744!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1hm6hjn15?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Wijilan+Bu+Hj.+Rini/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578560105b6f:0x26a8f977361fe38a!8m2!3d-7.8043545!4d110.3667744!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1hm6hjn15?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -2072,25 +2028,24 @@
           <t>0895-3498-24299</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.6</v>
+        <v>-7.803513</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.803513</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.367824</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kentuku+Fried+Chicken+Nasi+Urap+Pak+Untung/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57859e798261:0x3281b0ad8ffcd62a!8m2!3d-7.8035127!4d110.3678243!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERYnJ1bmNoX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11dx91zyqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kentuku+Fried+Chicken+Nasi+Urap+Pak+Untung/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57859e798261:0x3281b0ad8ffcd62a!8m2!3d-7.8035127!4d110.3678243!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERYnJ1bmNoX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11dx91zyqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2113,25 +2068,24 @@
           <t>(0274) 553853</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.5</v>
+        <v>-7.801186</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.801186</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.373194</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Permata+Bu+Narti/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57814f2e420b:0x301ea11da2471e74!8m2!3d-7.8011863!4d110.373194!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzr719ts?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Permata+Bu+Narti/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57814f2e420b:0x301ea11da2471e74!8m2!3d-7.8011863!4d110.373194!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzr719ts?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2158,25 +2112,24 @@
           <t>0878-2193-8213</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.6</v>
+        <v>-7.821116</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.821116</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.367826</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dapur+EL/@-7.8211159,110.3498015,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57a35c968867:0xe2fea61366c6a700!8m2!3d-7.8211159!4d110.3678259!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQYXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11dzdk2h6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dapur+EL/@-7.8211159,110.3498015,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57a35c968867:0xe2fea61366c6a700!8m2!3d-7.8211159!4d110.3678259!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQYXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11dzdk2h6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2199,21 +2152,20 @@
           <t>0878-3818-0218</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
+      <c r="E44" t="n">
         <v>4.4</v>
       </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sate+Kere+Daging+Sapi+Bu+Suwarni/@-7.7990976,110.3479283,15z/data=!3m1!5s0x2e7a57862ad2ee45:0xde643eb81b63559!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57888f1ad3c3:0xaaced992a4d93ffe!8m2!3d-7.7990976!4d110.3659527!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11dylsbbmw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sate+Kere+Daging+Sapi+Bu+Suwarni/@-7.7990976,110.3479283,15z/data=!3m1!5s0x2e7a57862ad2ee45:0xde643eb81b63559!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57888f1ad3c3:0xaaced992a4d93ffe!8m2!3d-7.7990976!4d110.3659527!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11dylsbbmw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2236,25 +2188,24 @@
           <t>0823-2496-0379</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.9</v>
+        <v>-7.819257</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.819257</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.372312</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yam+Yam+Restaurant+Yogyakarta/@-7.8192571,110.3542877,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57420708f293:0xa4112c4261600375!8m2!3d-7.8192571!4d110.3723121!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEPdGhhaV9yZXN0YXVyYW504AEA!16s%2Fg%2F11w9j_w8gz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yam+Yam+Restaurant+Yogyakarta/@-7.8192571,110.3542877,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57420708f293:0xa4112c4261600375!8m2!3d-7.8192571!4d110.3723121!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEPdGhhaV9yZXN0YXVyYW504AEA!16s%2Fg%2F11w9j_w8gz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -2277,21 +2228,20 @@
           <t>0823-2480-9398</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
+      <c r="E46" t="n">
         <v>5</v>
       </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Rice+Bowl/@-7.8048046,110.3509124,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57006d108d9d:0x6845215afb256207!8m2!3d-7.8048046!4d110.3689368!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGGSAQpyZXN0YXVyYW504AEA!16s%2Fg%2F11ybs1v197?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Rice+Bowl/@-7.8048046,110.3509124,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57006d108d9d:0x6845215afb256207!8m2!3d-7.8048046!4d110.3689368!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGGSAQpyZXN0YXVyYW504AEA!16s%2Fg%2F11ybs1v197?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2318,25 +2268,24 @@
           <t>0823-2561-7878</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.6</v>
+        <v>-7.778159</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.778159</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.388818</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DIL+RANI+RESTAURANT,+India,+Western,+Asian+Cuisine/@-7.7781595,110.3707938,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a595c8727582f:0x49e0f0296984235!8m2!3d-7.7781595!4d110.3888182!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11ptvzdy6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DIL+RANI+RESTAURANT,+India,+Western,+Asian+Cuisine/@-7.7781595,110.3707938,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a595c8727582f:0x49e0f0296984235!8m2!3d-7.7781595!4d110.3888182!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11ptvzdy6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2359,21 +2308,20 @@
           <t>0856-2890-470</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
+      <c r="E48" t="n">
         <v>4.6</v>
       </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pecel+Madiun+Berkat/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a583172f61ab9:0x82f7bbe665e7ff27!8m2!3d-7.7985146!4d110.3642877!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c0rq4r9l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2392,25 +2340,24 @@
           <t>0831-5656-3880</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.4</v>
+        <v>-7.805666</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.805666</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.369177</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BURJO+ANDESKA/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57979619b225:0xa8a0b55598db26d5!8m2!3d-7.8056657!4d110.3691768!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11h7w4pn1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BURJO+ANDESKA/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57979619b225:0xa8a0b55598db26d5!8m2!3d-7.8056657!4d110.3691768!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11h7w4pn1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2437,25 +2384,24 @@
           <t>0813-9018-0097</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.4</v>
+        <v>-7.799085</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.799085</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.368203</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gado+Gado+Bu+Hadi/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578864c302df:0x42fc8c0dfa50f97a!8m2!3d-7.7990854!4d110.3682027!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1hc30mx3l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gado+Gado+Bu+Hadi/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578864c302df:0x42fc8c0dfa50f97a!8m2!3d-7.7990854!4d110.3682027!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1hc30mx3l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2482,25 +2428,24 @@
           <t>0813-9018-0097</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.4</v>
+        <v>-7.802797</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.802797</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.365207</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SOTO+BATHOK+SOR+RINGIN/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57d1045ad51b:0x8e3610f5abb998b7!8m2!3d-7.8027966!4d110.3652068!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEPc290b19yZXN0YXVyYW504AEA!16s%2Fg%2F11n5w_nysw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SOTO+BATHOK+SOR+RINGIN/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57d1045ad51b:0x8e3610f5abb998b7!8m2!3d-7.8027966!4d110.3652068!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEPc290b19yZXN0YXVyYW504AEA!16s%2Fg%2F11n5w_nysw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2523,25 +2468,24 @@
           <t>(0274) 5012802</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.4</v>
+        <v>-7.784562</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.784562</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.374453</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Silol+Kopi+%26+Eatery/@-7.7845616,110.3564282,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a583270dfb36d:0x11319229b0a5bd3b!8m2!3d-7.7845616!4d110.3744526!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEEY2FmZeABAA!16s%2Fg%2F11c6tvy7gq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2556,21 +2500,20 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
+      <c r="E53" t="n">
         <v>4.5</v>
       </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Soto+Pak+Muh+Pasar+Beringharjo%EA%A7%8B%EA%A6%B1%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%A5%EA%A6%8F%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%83%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A7%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%81%EA%A6%B2%EA%A6%82%EA%A6%97%EA%A6%BA%EA%A6%B4/@-7.7845616,110.3564282,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5788828487a7:0xb39531bfc3730f42!8m2!3d-7.7986705!4d110.3664972!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEPc290b19yZXN0YXVyYW504AEA!16s%2Fg%2F11fx9fb2h4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2589,21 +2532,20 @@
           <t>0878-3888-5250</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
+      <c r="E54" t="n">
         <v>4.4</v>
       </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sejenis+Warung+Ramen+n+Katsu/@-7.797017,110.3464456,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57883a144249:0x49969bfa5778023d!8m2!3d-7.797017!4d110.36447!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQcmFtZW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11c44pc3b3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2626,21 +2568,20 @@
           <t>0813-9020-3562</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
+      <c r="E55" t="n">
         <v>4.9</v>
       </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GRILL+JOGJA_ID+-+Sewa+Alat+Grill+%26+BBQ+Jogja+Kota+Home+Service/@-7.797017,110.3464456,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57d1ad45f57b:0x22a4eb1d7f1e322!8m2!3d-7.7988929!4d110.3708141!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEaa29yZWFuX2JhcmJlY3VlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11tf_0qvpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GRILL+JOGJA_ID+-+Sewa+Alat+Grill+%26+BBQ+Jogja+Kota+Home+Service/@-7.797017,110.3464456,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57d1ad45f57b:0x22a4eb1d7f1e322!8m2!3d-7.7988929!4d110.3708141!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEaa29yZWFuX2JhcmJlY3VlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11tf_0qvpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2663,21 +2604,20 @@
           <t>0877-3892-0614</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
+      <c r="E56" t="n">
         <v>4.7</v>
       </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Bu+is+asli+Wijilan/@-7.797017,110.3464456,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57733fa6f4d3:0x5ac63d78ae04b60b!8m2!3d-7.8043931!4d110.3666903!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11sv8vm5q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Bu+is+asli+Wijilan/@-7.797017,110.3464456,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57733fa6f4d3:0x5ac63d78ae04b60b!8m2!3d-7.8043931!4d110.3666903!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11sv8vm5q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2704,21 +2644,20 @@
           <t>0812-6694-3697</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
+      <c r="E57" t="n">
         <v>4.7</v>
       </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nanamia+Pizzeria/@-7.8180926,110.3445991,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57bdbddd5d99:0xe19d896da9b1e5fd!8m2!3d-7.8180926!4d110.3626235!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgESaXRhbGlhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1q6bd_dqz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nanamia+Pizzeria/@-7.8180926,110.3445991,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57bdbddd5d99:0xe19d896da9b1e5fd!8m2!3d-7.8180926!4d110.3626235!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgESaXRhbGlhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1q6bd_dqz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -2745,25 +2684,24 @@
           <t>0857-2572-5633</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.3</v>
+        <v>-7.802851</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.802851</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.365585</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tengkleng+Bhenjoyo,+Keraton/@-7.8028511,110.3475607,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578e3efe0c1f:0x616c471bcbeadef8!8m2!3d-7.8028511!4d110.3655851!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11ry5z255v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2778,25 +2716,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F59" t="n">
-        <v>3.9</v>
+        <v>-7.80266</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.80266</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.363517</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+mbarek+Bu+Hj+Amad+PDHI+Alun2+Utara/@-7.8028511,110.3475607,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578ee1b2e2b9:0x11a078ea5785be54!8m2!3d-7.8026596!4d110.3635171!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c2q32q1j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+mbarek+Bu+Hj+Amad+PDHI+Alun2+Utara/@-7.8028511,110.3475607,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578ee1b2e2b9:0x11a078ea5785be54!8m2!3d-7.8026596!4d110.3635171!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c2q32q1j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2819,21 +2756,20 @@
           <t>0858-7850-6000</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="n">
+      <c r="E60" t="n">
         <v>4.5</v>
       </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kedai+Lur/@-7.7875666,110.3469306,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a582512ebc5db:0x24095265b489433a!8m2!3d-7.7875666!4d110.364955!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11fx82xqby?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2852,25 +2788,24 @@
           <t>(0274) 9615744</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.5</v>
+        <v>-7.806586</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.806586</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.369382</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Makan+Bakso+Gress/@-7.8065861,110.3513571,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a579ad6f22483:0x44c4b8c52bdd82ec!8m2!3d-7.8065861!4d110.3693815!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQYmFrc29fcmVzdGF1cmFudOABAA!16s%2Fg%2F11bbydnmkp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Makan+Bakso+Gress/@-7.8065861,110.3513571,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a579ad6f22483:0x44c4b8c52bdd82ec!8m2!3d-7.8065861!4d110.3693815!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQYmFrc29fcmVzdGF1cmFudOABAA!16s%2Fg%2F11bbydnmkp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2897,21 +2832,20 @@
           <t>1 500 600</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
+      <c r="E62" t="n">
         <v>4.5</v>
       </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pizza+Hut+Restoran/@-7.8021251,110.361706,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a577894ee9a49:0x306e81b830f99008!8m2!3d-7.8021251!4d110.3797304!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQcGl6emFfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b8sz9gp7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pizza+Hut+Restoran/@-7.8021251,110.361706,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a577894ee9a49:0x306e81b830f99008!8m2!3d-7.8021251!4d110.3797304!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQcGl6emFfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b8sz9gp7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2934,21 +2868,20 @@
           <t>0851-0169-8599</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
+      <c r="E63" t="n">
         <v>4.4</v>
       </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mie+Bandung/@-7.7985665,110.3441806,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5789a1e02be7:0x529bb16496ed398b!8m2!3d-7.7985665!4d110.362205!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1hm54nkts?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mie+Bandung/@-7.7985665,110.3441806,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5789a1e02be7:0x529bb16496ed398b!8m2!3d-7.7985665!4d110.362205!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1hm54nkts?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2971,25 +2904,24 @@
           <t>0812-2715-674</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.4</v>
+        <v>-7.797708</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.797708</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.366207</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lesehan+SBTB+Terang+Bulan+malioboro/@-7.7985665,110.3441806,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a58263237e877:0x80381bc5f3cfdb81!8m2!3d-7.7977081!4d110.3662074!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11cjj0kgz1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lesehan+SBTB+Terang+Bulan+malioboro/@-7.7985665,110.3441806,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a58263237e877:0x80381bc5f3cfdb81!8m2!3d-7.7977081!4d110.3662074!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11cjj0kgz1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -3012,21 +2944,20 @@
           <t>(0274) 379233</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
+      <c r="E65" t="n">
         <v>4.6</v>
       </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Nyonya+Hj+Haryanto/@-7.7985665,110.3441806,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57855f8d1fdb:0x90b7cfe87412226f!8m2!3d-7.8047145!4d110.366813!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEFZGluZXLgAQA!16s%2Fg%2F1hm2kthv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Nyonya+Hj+Haryanto/@-7.7985665,110.3441806,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57855f8d1fdb:0x90b7cfe87412226f!8m2!3d-7.8047145!4d110.366813!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEFZGluZXLgAQA!16s%2Fg%2F1hm2kthv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3049,21 +2980,20 @@
           <t>0878-3827-5257</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
+      <c r="E66" t="n">
         <v>4</v>
       </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Joglo+Lawas/@-7.7985665,110.3441806,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578f90dff963:0x759244e524e13732!8m2!3d-7.8046814!4d110.3656074!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11fy1lxz3p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Joglo+Lawas/@-7.7985665,110.3441806,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578f90dff963:0x759244e524e13732!8m2!3d-7.8046814!4d110.3656074!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11fy1lxz3p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3086,21 +3016,20 @@
           <t>(0274) 5018852</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="n">
+      <c r="E67" t="n">
         <v>4.2</v>
       </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lalawuh+Sunda/@-7.7800674,110.3321875,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5843ffbe88bf:0x3ecd762f3e89064!8m2!3d-7.7800674!4d110.3502119!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEUc3VuZGFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gh03xgj9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lalawuh+Sunda/@-7.7800674,110.3321875,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5843ffbe88bf:0x3ecd762f3e89064!8m2!3d-7.7800674!4d110.3502119!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEUc3VuZGFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gh03xgj9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -3123,25 +3052,24 @@
           <t>(0274) 414149</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.4</v>
+        <v>-7.803677</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.803677</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.368176</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Golden+Chicken/@-7.8036768,110.3501519,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5737853c3cdf:0xc4d245c3bf9e8fce!8m2!3d-7.8036768!4d110.3681763!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgESY2hpY2tlbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11g0gcc47h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Golden+Chicken/@-7.8036768,110.3501519,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5737853c3cdf:0xc4d245c3bf9e8fce!8m2!3d-7.8036768!4d110.3681763!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgESY2hpY2tlbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11g0gcc47h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -3160,25 +3088,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.3</v>
+        <v>-7.806079</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.806079</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.369514</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nasi+Padang+Pak+Edi+%EA%A6%AB%EA%A6%B8%EA%A6%A9%EA%A6%83%EA%A6%A9%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%A3%EA%A6%81/@-7.8036768,110.3501519,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5784d5604a8f:0x21e6638824169722!8m2!3d-7.8060789!4d110.3695138!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGFkYW5nX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11dxbn8b64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nasi+Padang+Pak+Edi+%EA%A6%AB%EA%A6%B8%EA%A6%A9%EA%A6%83%EA%A6%A9%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%A3%EA%A6%81/@-7.8036768,110.3501519,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5784d5604a8f:0x21e6638824169722!8m2!3d-7.8060789!4d110.3695138!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGFkYW5nX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11dxbn8b64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3201,25 +3128,24 @@
           <t>(0274) 2921888</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.7</v>
+        <v>-7.782671</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.782671</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.374239</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Swiss+Cafe/@-7.7826711,110.3562141,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a58324af0c481:0x2843a49a9985378d!8m2!3d-7.7826711!4d110.3742385!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEEY2FmZeABAA!16s%2Fg%2F11c56r636r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Swiss+Cafe/@-7.7826711,110.3562141,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a58324af0c481:0x2843a49a9985378d!8m2!3d-7.7826711!4d110.3742385!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEEY2FmZeABAA!16s%2Fg%2F11c56r636r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3246,25 +3172,24 @@
           <t>0895-3723-08989</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.5</v>
+        <v>-7.808628</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.808628</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.370811</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Etnik+Kafe/@-7.8086276,110.3527861,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a579ade26fd21:0xee1b9ed2964a8c1e!8m2!3d-7.8086276!4d110.3708105!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEEY2FmZeABAA!16s%2Fg%2F11bc7rkn8l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3279,21 +3204,20 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
+      <c r="E72" t="n">
         <v>4.7</v>
       </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dawet+Mbah+Hari+Pasar+Beringharjo/@-7.8086276,110.3527861,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5979897dcd83:0xb4cfe8a04c71398e!8m2!3d-7.7984379!4d110.3653807!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11hyk3sdpb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3316,25 +3240,24 @@
           <t>0811-255-511</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.5</v>
+        <v>-7.747528</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.747528</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.338362</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Westlake+Resto/@-7.747528,110.3203375,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5884c11dc483:0x46a2b119fcb720b5!8m2!3d-7.747528!4d110.3383619!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1ptzfd646?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Westlake+Resto/@-7.747528,110.3203375,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5884c11dc483:0x46a2b119fcb720b5!8m2!3d-7.747528!4d110.3383619!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1ptzfd646?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -3357,25 +3280,24 @@
           <t>0877-7323-6697</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.5</v>
+        <v>-7.807872</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.807872</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.367896</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kedai+Makan+Wong+5+Jogja/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57efe0e819ed:0x336ac890fae4c693!8m2!3d-7.8078723!4d110.3678956!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERYnJ1bmNoX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11kbsqzdl6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3398,25 +3320,24 @@
           <t>0811-2625-758</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.9</v>
+        <v>-7.803558</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.803558</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.36869</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SG+Coffee+%26+Pastry/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57ba1deee565:0x10f45983ae084238!8m2!3d-7.8035579!4d110.3686896!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEGYmlzdHJv4AEA!16s%2Fg%2F11tn3z9zh8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SG+Coffee+%26+Pastry/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57ba1deee565:0x10f45983ae084238!8m2!3d-7.8035579!4d110.3686896!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEGYmlzdHJv4AEA!16s%2Fg%2F11tn3z9zh8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -3439,25 +3360,24 @@
           <t>0877-3832-7005</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.4</v>
+        <v>-7.799492</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.799492</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.362157</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Olive+Fried+Chicken+-+Bhayangkara/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57896d36f06f:0xc4424722a8893d56!8m2!3d-7.7994919!4d110.3621568!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEWZnJpZWRfY2hpY2tlbl90YWtlYXdheeABAA!16s%2Fg%2F11bbx039hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Olive+Fried+Chicken+-+Bhayangkara/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57896d36f06f:0xc4424722a8893d56!8m2!3d-7.7994919!4d110.3621568!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEWZnJpZWRfY2hpY2tlbl90YWtlYXdheeABAA!16s%2Fg%2F11bbx039hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3484,25 +3404,24 @@
           <t>0811-9700-6401</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.6</v>
+        <v>-7.801962</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.801962</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.37465</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/McDonald's+Sultan+Agung/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5751ba62f6df:0x3c10405fb0399e2c!8m2!3d-7.801962!4d110.3746504!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEUZmFzdF9mb29kX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gxm980ty?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3525,25 +3444,24 @@
           <t>0811-1236-740</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.5</v>
+        <v>-7.803152</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.803152</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.368954</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Makaroni+Ngehe+Foxtrot+Katamso/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5785ae2a0e39:0xd760c05419dbe56!8m2!3d-7.8031525!4d110.3689538!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEUZmFzdF9mb29kX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11g871mx0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3562,25 +3480,24 @@
           <t>(0274) 379467</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.3</v>
+        <v>-7.810219</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.810219</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.368797</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sate+Kambing+Asli+Tambaksegaran+Yogyakarta/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a579a489f800f:0xe94e3cf5654858f8!8m2!3d-7.8102186!4d110.368797!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F1hm5j2sht?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3595,25 +3512,24 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.2</v>
+        <v>-7.805224</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.805224</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.365326</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Special+Bakmi+%26+Nasi+Goreng+Pak+Pele/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578fea2384d5:0x7398f15cc39bce6b!8m2!3d-7.8052242!4d110.3653261!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1pztkls24?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Special+Bakmi+%26+Nasi+Goreng+Pak+Pele/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578fea2384d5:0x7398f15cc39bce6b!8m2!3d-7.8052242!4d110.3653261!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1pztkls24?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -3632,25 +3548,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.2</v>
+        <v>-7.761851</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.761851</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.398435</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yogyakarta+Kitchen+by+Marriott/@-7.7618506,110.3804109,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a59a30f954011:0x97519fd73a122619!8m2!3d-7.7618506!4d110.3984353!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERYnVmZmV0X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gd6x4mlp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yogyakarta+Kitchen+by+Marriott/@-7.7618506,110.3804109,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a59a30f954011:0x97519fd73a122619!8m2!3d-7.7618506!4d110.3984353!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERYnVmZmV0X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gd6x4mlp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -3673,25 +3588,24 @@
           <t>0818-0425-5220</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F82" t="n">
-        <v>3.9</v>
+        <v>-7.804412</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.804412</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.366568</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sate+Klatak+Kambing+Muda+Pak+Tong/@-7.8044117,110.3485436,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578f88300b67:0xd81ad306687a1a5c!8m2!3d-7.8044117!4d110.366568!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b73jz3vn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3710,25 +3624,24 @@
           <t>0812-6719-6500</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.5</v>
+        <v>-7.803604</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.803604</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.367493</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pempek+Tanjung+Pesona/@-7.8044117,110.3485436,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57859b3f826d:0x3a2e376b338d4976!8m2!3d-7.8036041!4d110.3674932!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGVtcGVrX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pztyx4rc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pempek+Tanjung+Pesona/@-7.8044117,110.3485436,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57859b3f826d:0x3a2e376b338d4976!8m2!3d-7.8036041!4d110.3674932!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGVtcGVrX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pztyx4rc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3751,25 +3664,24 @@
           <t>0813-9233-4567</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.4</v>
+        <v>-7.805216</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.805216</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.370604</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Makan+Bu+TATIK/@-7.8044117,110.3485436,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5784c48fab77:0x62b43bb6964140b5!8m2!3d-7.8052163!4d110.3706043!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11f0xhjwlv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3788,25 +3700,24 @@
           <t>0895-1941-4408</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.8</v>
+        <v>-7.803278</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.803278</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.366062</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Es+Kelapa+88/@-7.8044117,110.3485436,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578f7bb4eed3:0x5ec14e67d78c7280!8m2!3d-7.803278!4d110.3660619!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEQaGFsYWxfcmVzdGF1cmFudOABAA!16s%2Fg%2F11bz_tl7c3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3829,25 +3740,24 @@
           <t>0816-4265-573</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.5</v>
+        <v>-7.79973</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.79973</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.36199</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Bakmi+Ketandan+(Bakmi+nCek+Dhiam)/@-7.8044117,110.3485436,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578998ab7d21:0x36cbff4dc101d52b!8m2!3d-7.7997304!4d110.3619904!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1ptw8rpp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Bakmi+Ketandan+(Bakmi+nCek+Dhiam)/@-7.8044117,110.3485436,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578998ab7d21:0x36cbff4dc101d52b!8m2!3d-7.7997304!4d110.3619904!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1ptw8rpp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -3870,25 +3780,24 @@
           <t>0812-2747-1638</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.4</v>
+        <v>-7.797283</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.797283</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.370602</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Nasi+Goreng+Bringharjo/@-7.8044117,110.3485436,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57867947ad9b:0x47999d82e889031!8m2!3d-7.797283!4d110.370602!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEWbmFzaV9nb3JlbmdfcmVzdGF1cmFudOABAA!16s%2Fg%2F11hbp_kv2c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3903,25 +3812,24 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>-7.805588</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.805588</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.368401</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/carnivore+stage+burger/@-7.8044117,110.3485436,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57001a235de3:0xf86022646fe5fd83!8m2!3d-7.8055883!4d110.3684011!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEUaGFtYnVyZ2VyX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11lzmq0x4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
